--- a/medicine/Mort/Cimetière_de_la_peste_de_Zell/Cimetière_de_la_peste_de_Zell.xlsx
+++ b/medicine/Mort/Cimetière_de_la_peste_de_Zell/Cimetière_de_la_peste_de_Zell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_peste_de_Zell</t>
+          <t>Cimetière_de_la_peste_de_Zell</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la peste de Zell est un cimetière de la peste situé à Eisenberg, sur la route menant de Zell (de) à Schweinegg (de).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_peste_de_Zell</t>
+          <t>Cimetière_de_la_peste_de_Zell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un rapport sur l'origine du pèlerinage à Maria Hilf (de) à Speiden (de) dans le Mirakelbuch (de)[1] nous apprend qu'en 1635, des cavaliers du régiment de Schlick étaient en cantonnement dans la localité : « un ou plusieurs d'entre eux ont été atteints de la maladie ou de la peste dont ils sont morts »[2]. C'est la seule source qui prouve que la peste a également sévi et fait des victimes dans la commune d'Eisenberg.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un rapport sur l'origine du pèlerinage à Maria Hilf (de) à Speiden (de) dans le Mirakelbuch (de) nous apprend qu'en 1635, des cavaliers du régiment de Schlick étaient en cantonnement dans la localité : « un ou plusieurs d'entre eux ont été atteints de la maladie ou de la peste dont ils sont morts ». C'est la seule source qui prouve que la peste a également sévi et fait des victimes dans la commune d'Eisenberg.
 Le nombre de morts de la peste n'est pas connu, mais un ancien rapport indique que l'épidémie a tué 54,8 % de la population totale de la commune voisine de Pfronten. Cette donnée devrait également s'appliquer à Eisenberg.
 </t>
         </is>
